--- a/medicine/Enfance/Over_the_Rainbow_(album_de_Connie_Talbot)/Over_the_Rainbow_(album_de_Connie_Talbot).xlsx
+++ b/medicine/Enfance/Over_the_Rainbow_(album_de_Connie_Talbot)/Over_the_Rainbow_(album_de_Connie_Talbot).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Over the Rainbow est le premier album de la chanteuse anglaise Connie Talbot, sorti le 26 novembre 2007.
 </t>
@@ -511,9 +523,11 @@
           <t>L'album</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'ayant reçu des critiques négatives, l'album atteint la 35e place dans les charts britanniques[1] et est par la suite certifié disque d'or au Royaume-Uni[2]. Talbot n'ayant que sept ans lors de l'enregistrement de l'album, la plupart des enregistrements ont été réalisés dans une pièce de la maison de sa tante. Pour promouvoir l'album, la chanteuse a effectué plusieurs concerts ainsi qu'une tournée en Asie. Over the Rainbow a ainsi obtenu du succès en Asie, atteignant la 1re place à Taïwan, en Corée du Sud et à Hong Kong, et la 3e à Singapour[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'ayant reçu des critiques négatives, l'album atteint la 35e place dans les charts britanniques et est par la suite certifié disque d'or au Royaume-Uni. Talbot n'ayant que sept ans lors de l'enregistrement de l'album, la plupart des enregistrements ont été réalisés dans une pièce de la maison de sa tante. Pour promouvoir l'album, la chanteuse a effectué plusieurs concerts ainsi qu'une tournée en Asie. Over the Rainbow a ainsi obtenu du succès en Asie, atteignant la 1re place à Taïwan, en Corée du Sud et à Hong Kong, et la 3e à Singapour.
 </t>
         </is>
       </c>
@@ -544,8 +558,45 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Album original
-Réédition
+          <t>Album original</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Over_the_Rainbow_(album_de_Connie_Talbot)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Over_the_Rainbow_(album_de_Connie_Talbot)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réédition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
